--- a/NTDS_Rotterdam.xlsx
+++ b/NTDS_Rotterdam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="10800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="160">
   <si>
     <t>Breiten</t>
   </si>
@@ -489,6 +489,21 @@
   </si>
   <si>
     <t>Rotterdam 136</t>
+  </si>
+  <si>
+    <t>EHBO</t>
+  </si>
+  <si>
+    <t>Wil jureren</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Slaapplek</t>
+  </si>
+  <si>
+    <t>Allergiën/dieet</t>
   </si>
 </sst>
 </file>
@@ -854,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L137"/>
+  <dimension ref="A1:Q137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,9 +883,13 @@
     <col min="4" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -907,8 +926,23 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -934,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -960,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -989,7 +1023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1018,7 +1052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1041,7 +1075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1064,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1087,7 +1121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1110,7 +1144,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1133,7 +1167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1156,7 +1190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1179,7 +1213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1202,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1225,7 +1259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1248,7 +1282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/NTDS_Rotterdam.xlsx
+++ b/NTDS_Rotterdam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16200" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,7 +702,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:K12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,9 +821,7 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2">
         <v>5</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1424,7 +1422,9 @@
       <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
         <v>102</v>

--- a/NTDS_Rotterdam.xlsx
+++ b/NTDS_Rotterdam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="16800" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="17400" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
   <si>
-    <t>Breiten</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Nummer</t>
   </si>
   <si>
@@ -62,9 +56,6 @@
     <t>Team-captain</t>
   </si>
   <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -336,6 +327,15 @@
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>Breitensport</t>
+  </si>
+  <si>
+    <t>Beginners</t>
+  </si>
+  <si>
+    <t>Open Class</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,8 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -732,73 +733,73 @@
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -806,43 +807,43 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="S2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -850,43 +851,43 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L3" s="2"/>
       <c r="O3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="S3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
@@ -894,22 +895,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -918,23 +919,23 @@
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L4" s="2"/>
       <c r="O4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="S4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
@@ -942,20 +943,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
@@ -964,23 +965,23 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="S5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -988,20 +989,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H6" s="2">
         <v>14</v>
@@ -1010,25 +1011,25 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="S6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -1036,20 +1037,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -1058,25 +1059,25 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="S7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
@@ -1084,20 +1085,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -1106,23 +1107,23 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="S8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1130,43 +1131,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="S9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1174,43 +1175,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="S10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1218,44 +1219,44 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="S11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1263,16 +1264,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1282,26 +1283,26 @@
       <c r="K12" s="3"/>
       <c r="L12" s="2"/>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1309,20 +1310,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H13" s="2">
         <v>13</v>
@@ -1331,23 +1332,23 @@
         <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="S13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -1355,22 +1356,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2">
         <v>12</v>
@@ -1379,27 +1380,27 @@
         <v>12</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L14" s="2"/>
       <c r="O14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="S14" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -1407,43 +1408,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L15" s="2"/>
       <c r="O15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="S15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -1451,20 +1452,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H16" s="2">
         <v>18</v>
@@ -1473,19 +1474,19 @@
         <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="S16" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
@@ -1495,48 +1496,48 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="S17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -1544,40 +1545,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="S18" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V18" s="2"/>
     </row>
@@ -1586,20 +1587,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H19" s="2">
         <v>15</v>
@@ -1608,19 +1609,19 @@
         <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="S19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1630,41 +1631,41 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="S20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -1672,43 +1673,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="S21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U21" s="2"/>
       <c r="V21" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -1716,38 +1717,38 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="V22" s="2"/>
     </row>

--- a/NTDS_Rotterdam.xlsx
+++ b/NTDS_Rotterdam.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18000" windowWidth="28800" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="19200" windowWidth="28800" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
   <si>
     <t>E-mail</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Ja</t>
   </si>
   <si>
-    <t>Team-captain</t>
-  </si>
-  <si>
     <t>EHBO</t>
   </si>
   <si>
@@ -329,16 +326,16 @@
     <t>Jury Latin</t>
   </si>
   <si>
-    <t>Allergiën / dieet</t>
-  </si>
-  <si>
     <t>Wil je vrijwilliger zijn voor dit NTDS?</t>
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
   </si>
   <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
+    <t>Teamcaptain</t>
+  </si>
+  <si>
+    <t>Allergiën / Dieet</t>
   </si>
 </sst>
 </file>
@@ -704,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,16 +733,16 @@
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -757,16 +754,16 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -775,68 +772,66 @@
         <v>4</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2">
         <v>5</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2"/>
       <c r="O2" s="2"/>
@@ -849,7 +844,7 @@
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -857,30 +852,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="2"/>
       <c r="O3" s="2"/>
@@ -893,7 +888,7 @@
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -901,22 +896,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="2">
         <v>4</v>
@@ -925,10 +920,10 @@
         <v>4</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L4" s="2"/>
       <c r="O4" s="2"/>
@@ -941,7 +936,7 @@
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -949,20 +944,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
@@ -971,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="2"/>
@@ -987,7 +982,7 @@
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -995,20 +990,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2">
         <v>14</v>
@@ -1017,10 +1012,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2"/>
       <c r="O6" s="2" t="s">
@@ -1043,20 +1038,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2">
         <v>7</v>
@@ -1065,10 +1060,10 @@
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2"/>
       <c r="O7" s="2"/>
@@ -1080,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>5</v>
@@ -1091,20 +1086,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="2">
         <v>6</v>
@@ -1113,10 +1108,10 @@
         <v>6</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2"/>
       <c r="O8" s="2"/>
@@ -1129,7 +1124,7 @@
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -1137,30 +1132,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" s="2"/>
       <c r="O9" s="2"/>
@@ -1173,7 +1168,7 @@
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -1181,30 +1176,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="2"/>
       <c r="O10" s="2"/>
@@ -1225,26 +1220,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" t="s">
@@ -1259,10 +1254,10 @@
         <v>5</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -1270,16 +1265,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1305,7 +1300,7 @@
         <v>5</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="V12" s="2" t="s">
         <v>5</v>
@@ -1316,20 +1311,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H13" s="2">
         <v>13</v>
@@ -1338,10 +1333,10 @@
         <v>13</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="2"/>
       <c r="O13" s="2"/>
@@ -1362,22 +1357,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2">
         <v>12</v>
@@ -1386,10 +1381,10 @@
         <v>12</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="2"/>
       <c r="O14" s="2" t="s">
@@ -1403,7 +1398,7 @@
         <v>5</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V14" s="2" t="s">
         <v>5</v>
@@ -1414,30 +1409,30 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2"/>
       <c r="O15" s="2"/>
@@ -1458,20 +1453,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="2">
         <v>18</v>
@@ -1480,10 +1475,10 @@
         <v>18</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L16" s="2"/>
       <c r="O16" s="2"/>
@@ -1502,28 +1497,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>5</v>
@@ -1551,30 +1546,30 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L18" s="2"/>
       <c r="O18" s="2"/>
@@ -1584,7 +1579,7 @@
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V18" s="2"/>
     </row>
@@ -1593,20 +1588,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H19" s="2">
         <v>15</v>
@@ -1615,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L19" s="2"/>
       <c r="O19" s="2"/>
@@ -1637,28 +1632,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L20" s="2"/>
       <c r="O20" s="2"/>
@@ -1671,7 +1666,7 @@
       </c>
       <c r="U20" s="2"/>
       <c r="V20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -1679,30 +1674,30 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" s="2"/>
       <c r="O21" s="2"/>
@@ -1723,28 +1718,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L22" s="2"/>
       <c r="O22" s="2"/>
@@ -1754,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V22" s="2"/>
     </row>

--- a/NTDS_Rotterdam.xlsx
+++ b/NTDS_Rotterdam.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\test_signup\Amsterdam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alen\PycharmProjects\NTDS_Loting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1815" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="2415" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="104">
   <si>
     <t>Nr.</t>
   </si>
@@ -730,7 +730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:W22"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1265,9 +1265,7 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="5" t="s">
         <v>41</v>
       </c>
